--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25225"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\workspace\github\luban_examples\MiniDesignerConfigsTemplate\Datas\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00EEC648-F834-4F5C-B9A2-22B3812B07EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="180" yWindow="3795" windowWidth="17640" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
   <si>
     <t>##var</t>
   </si>
@@ -112,20 +106,53 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>item.TbItem</t>
+    <t>Stock.TbItem</t>
   </si>
   <si>
     <t>Item</t>
   </si>
   <si>
-    <t>item.xlsx</t>
+    <t>Item.xlsx</t>
+  </si>
+  <si>
+    <t>Stock.TbDice</t>
+  </si>
+  <si>
+    <t>Dice</t>
+  </si>
+  <si>
+    <t>Dice.xlsx</t>
+  </si>
+  <si>
+    <t>Stock.TbCard</t>
+  </si>
+  <si>
+    <t>Card</t>
+  </si>
+  <si>
+    <t>Card.xlsx</t>
+  </si>
+  <si>
+    <t>Global.TbGlobal</t>
+  </si>
+  <si>
+    <t>GlobalVariable</t>
+  </si>
+  <si>
+    <t>Global.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,18 +164,148 @@
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,8 +318,188 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -170,35 +507,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -456,29 +1078,30 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
+    <col min="12" max="12" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -516,7 +1139,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="1" customFormat="1" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -551,33 +1174,33 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+    <row r="3" s="2" customFormat="1" ht="60" customHeight="1" spans="1:12">
+      <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="J3" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:5">
       <c r="B4" t="s">
         <v>30</v>
       </c>
@@ -591,9 +1214,51 @@
         <v>32</v>
       </c>
     </row>
+    <row r="5" spans="2:5">
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7" t="b">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>41</v>
+      </c>
+    </row>
   </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -106,7 +106,7 @@
     <t>默认为 &lt;module&gt;_&lt;name&gt;.&lt;suffix&gt;</t>
   </si>
   <si>
-    <t>Stock.TbItem</t>
+    <t>DataTable.TbItem</t>
   </si>
   <si>
     <t>Item</t>
@@ -115,7 +115,7 @@
     <t>Item.xlsx</t>
   </si>
   <si>
-    <t>Stock.TbDice</t>
+    <t>DataTable.TbDice</t>
   </si>
   <si>
     <t>Dice</t>
@@ -124,7 +124,7 @@
     <t>Dice.xlsx</t>
   </si>
   <si>
-    <t>Stock.TbCard</t>
+    <t>DataTable.TbCard</t>
   </si>
   <si>
     <t>Card</t>
@@ -147,10 +147,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,11 +168,78 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -184,80 +251,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -266,6 +259,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -276,23 +277,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,181 +320,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -510,71 +510,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -595,13 +534,74 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -613,10 +613,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -625,133 +625,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1087,12 +1087,12 @@
   <dimension ref="A1:L7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
   <cols>
-    <col min="2" max="2" width="20.375" customWidth="1"/>
+    <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
   <si>
     <t>##var</t>
   </si>
@@ -133,13 +133,25 @@
     <t>Card.xlsx</t>
   </si>
   <si>
-    <t>Global.TbGlobal</t>
-  </si>
-  <si>
-    <t>GlobalVariable</t>
-  </si>
-  <si>
-    <t>Global.xlsx</t>
+    <t>DataTable.TbUIConfig</t>
+  </si>
+  <si>
+    <t>UIConfig</t>
+  </si>
+  <si>
+    <t>UIConfig@Config.xlsx</t>
+  </si>
+  <si>
+    <t>id,asset_name</t>
+  </si>
+  <si>
+    <t>DataTable.TbEntityConfig</t>
+  </si>
+  <si>
+    <t>EntityConfig</t>
+  </si>
+  <si>
+    <t>EntityConfig@Config.xlsx</t>
   </si>
 </sst>
 </file>
@@ -147,10 +159,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -168,6 +180,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="等线"/>
@@ -175,69 +217,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -251,6 +247,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -259,40 +271,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,55 +332,127 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -380,19 +464,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,91 +500,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,32 +517,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -545,21 +531,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,15 +553,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
@@ -605,6 +567,56 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -613,149 +625,149 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -764,6 +776,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1084,19 +1102,20 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L7"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
-    <col min="6" max="9" width="18" customWidth="1"/>
+    <col min="6" max="6" width="24.875" customWidth="1"/>
+    <col min="7" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="30.625" customWidth="1"/>
   </cols>
@@ -1242,7 +1261,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1252,11 +1271,35 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="b">
+        <v>1</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E7" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
+    <hyperlink ref="E8" r:id="rId2" display="EntityConfig@Config.xlsx" tooltip="mailto:EntityConfig@Config.xlsx"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
   <si>
     <t>##var</t>
   </si>
@@ -131,6 +131,24 @@
   </si>
   <si>
     <t>Card.xlsx</t>
+  </si>
+  <si>
+    <t>DataTable.TbDefaultSetting</t>
+  </si>
+  <si>
+    <t>DefaultSetting</t>
+  </si>
+  <si>
+    <t>DefaultSetting.xlsx</t>
+  </si>
+  <si>
+    <t>DataTable.TbGameConfig</t>
+  </si>
+  <si>
+    <t>GameConfig</t>
+  </si>
+  <si>
+    <t>GameConfig@Config.xlsx</t>
   </si>
   <si>
     <t>DataTable.TbUIConfig</t>
@@ -182,43 +200,43 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -625,10 +643,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -637,31 +655,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,13 +700,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -700,10 +718,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -718,56 +736,56 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -777,10 +795,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="31" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1102,13 +1117,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L8"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -1261,7 +1276,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:5">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1271,34 +1286,63 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" t="s">
         <v>41</v>
       </c>
-      <c r="F7" t="s">
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="8" spans="2:6">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>43</v>
-      </c>
-      <c r="C8" t="s">
-        <v>44</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" t="s">
         <v>45</v>
       </c>
-      <c r="F8" t="s">
-        <v>42</v>
+      <c r="C9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D10" t="b">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E7" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
-    <hyperlink ref="E8" r:id="rId2" display="EntityConfig@Config.xlsx" tooltip="mailto:EntityConfig@Config.xlsx"/>
+    <hyperlink ref="E9" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
+    <hyperlink ref="E10" r:id="rId2" display="EntityConfig@Config.xlsx" tooltip="mailto:EntityConfig@Config.xlsx"/>
+    <hyperlink ref="E8" r:id="rId3" display="GameConfig@Config.xlsx" tooltip="mailto:GameConfig@Config.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>##var</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t>GameConfig@Config.xlsx</t>
+  </si>
+  <si>
+    <t>one</t>
   </si>
   <si>
     <t>DataTable.TbUIConfig</t>
@@ -1120,7 +1123,7 @@
   <dimension ref="A1:L10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1130,7 +1133,8 @@
     <col min="4" max="4" width="25" customWidth="1"/>
     <col min="5" max="5" width="24.375" customWidth="1"/>
     <col min="6" max="6" width="24.875" customWidth="1"/>
-    <col min="7" max="9" width="18" customWidth="1"/>
+    <col min="7" max="7" width="25.25" customWidth="1"/>
+    <col min="8" max="9" width="18" customWidth="1"/>
     <col min="10" max="10" width="18.375" customWidth="1"/>
     <col min="12" max="12" width="30.625" customWidth="1"/>
   </cols>
@@ -1290,7 +1294,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:5">
+    <row r="8" spans="2:7">
       <c r="B8" t="s">
         <v>42</v>
       </c>
@@ -1302,40 +1306,43 @@
       </c>
       <c r="E8" s="3" t="s">
         <v>44</v>
+      </c>
+      <c r="G8" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="b">
         <v>1</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D10" t="b">
         <v>1</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
   </sheetData>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView windowHeight="17940"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -115,15 +115,6 @@
     <t>Item.xlsx</t>
   </si>
   <si>
-    <t>DataTable.TbDice</t>
-  </si>
-  <si>
-    <t>Dice</t>
-  </si>
-  <si>
-    <t>Dice.xlsx</t>
-  </si>
-  <si>
     <t>DataTable.TbCard</t>
   </si>
   <si>
@@ -164,15 +155,6 @@
   </si>
   <si>
     <t>id,asset_name</t>
-  </si>
-  <si>
-    <t>DataTable.TbEntityConfig</t>
-  </si>
-  <si>
-    <t>EntityConfig</t>
-  </si>
-  <si>
-    <t>EntityConfig@Config.xlsx</t>
   </si>
 </sst>
 </file>
@@ -1120,10 +1102,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L10"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1280,7 +1262,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:5">
+    <row r="7" spans="2:7">
       <c r="B7" t="s">
         <v>39</v>
       </c>
@@ -1290,66 +1272,37 @@
       <c r="D7" t="b">
         <v>1</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="G7" t="s">
+        <v>42</v>
+      </c>
     </row>
-    <row r="8" spans="2:7">
+    <row r="8" spans="2:6">
       <c r="B8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="G8" t="s">
         <v>45</v>
       </c>
+      <c r="F8" t="s">
+        <v>46</v>
+      </c>
     </row>
-    <row r="9" spans="2:6">
-      <c r="B9" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" t="s">
-        <v>47</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6">
-      <c r="B10" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-      <c r="D10" t="b">
-        <v>1</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F10" t="s">
-        <v>49</v>
-      </c>
+    <row r="9" spans="5:5">
+      <c r="E9" s="3"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E9" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
-    <hyperlink ref="E10" r:id="rId2" display="EntityConfig@Config.xlsx" tooltip="mailto:EntityConfig@Config.xlsx"/>
-    <hyperlink ref="E8" r:id="rId3" display="GameConfig@Config.xlsx" tooltip="mailto:GameConfig@Config.xlsx"/>
+    <hyperlink ref="E8" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
+    <hyperlink ref="E7" r:id="rId2" display="GameConfig@Config.xlsx" tooltip="mailto:GameConfig@Config.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17940"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
   <si>
     <t>##var</t>
   </si>
@@ -155,6 +155,15 @@
   </si>
   <si>
     <t>id,asset_name</t>
+  </si>
+  <si>
+    <t>DataTable.TbSceneConfig</t>
+  </si>
+  <si>
+    <t>SceneConfig</t>
+  </si>
+  <si>
+    <t>SceneConfig@Config.xlsx</t>
   </si>
 </sst>
 </file>
@@ -191,6 +200,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -214,14 +231,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -628,10 +637,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -640,19 +649,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -664,7 +673,7 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,13 +694,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -703,10 +712,10 @@
     <xf numFmtId="0" fontId="16" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -721,56 +730,56 @@
     <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -781,6 +790,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="10" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="10">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1117,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -1296,13 +1308,25 @@
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="3"/>
+    <row r="9" spans="2:5">
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>49</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E8" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
     <hyperlink ref="E7" r:id="rId2" display="GameConfig@Config.xlsx" tooltip="mailto:GameConfig@Config.xlsx"/>
+    <hyperlink ref="E9" r:id="rId3" display="SceneConfig@Config.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -1117,7 +1117,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>

--- a/Luban/Config/Datas/__tables__.xlsx
+++ b/Luban/Config/Datas/__tables__.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>##var</t>
   </si>
@@ -122,15 +122,6 @@
   </si>
   <si>
     <t>Card.xlsx</t>
-  </si>
-  <si>
-    <t>DataTable.TbDefaultSetting</t>
-  </si>
-  <si>
-    <t>DefaultSetting</t>
-  </si>
-  <si>
-    <t>DefaultSetting.xlsx</t>
   </si>
   <si>
     <t>DataTable.TbGameConfig</t>
@@ -1114,13 +1105,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <cols>
     <col min="2" max="2" width="25.375" customWidth="1"/>
     <col min="3" max="3" width="14" customWidth="1"/>
@@ -1260,7 +1251,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:7">
       <c r="B6" t="s">
         <v>36</v>
       </c>
@@ -1270,63 +1261,49 @@
       <c r="D6" t="b">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="3" t="s">
         <v>38</v>
       </c>
+      <c r="G6" t="s">
+        <v>39</v>
+      </c>
     </row>
-    <row r="7" spans="2:7">
+    <row r="7" spans="2:6">
       <c r="B7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D7" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" t="s">
         <v>42</v>
       </c>
+      <c r="F7" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="8" spans="2:6">
+    <row r="8" spans="2:5">
       <c r="B8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D8" t="b">
         <v>1</v>
       </c>
-      <c r="E8" s="3" t="s">
-        <v>45</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="E8" s="4" t="s">
         <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5">
-      <c r="B9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
-      </c>
-      <c r="D9" t="b">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E8" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
-    <hyperlink ref="E7" r:id="rId2" display="GameConfig@Config.xlsx" tooltip="mailto:GameConfig@Config.xlsx"/>
-    <hyperlink ref="E9" r:id="rId3" display="SceneConfig@Config.xlsx"/>
+    <hyperlink ref="E7" r:id="rId1" display="UIConfig@Config.xlsx" tooltip="mailto:UIConfig@Config.xlsx"/>
+    <hyperlink ref="E6" r:id="rId2" display="GameConfig@Config.xlsx" tooltip="mailto:GameConfig@Config.xlsx"/>
+    <hyperlink ref="E8" r:id="rId3" display="SceneConfig@Config.xlsx"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
